--- a/biology/Médecine/Articulation_gléno-humérale/Articulation_gléno-humérale.xlsx
+++ b/biology/Médecine/Articulation_gléno-humérale/Articulation_gléno-humérale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+          <t>Articulation_gléno-humérale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation gléno-humérale (ou articulation scapulo-humérale) est l'articulation qui relie la scapula à l'humérus au niveau de l'épaule.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+          <t>Articulation_gléno-humérale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,188 +525,575 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type articulaire
-L'articulation gléno-humérale est une énarthrose. C'est l'articulation la plus mobile du corps humain.
-Surfaces articulaires
-L'articulation gléno-humérale est constituée de deux surfaces articulaires :
+          <t>Type articulaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation gléno-humérale est une énarthrose. C'est l'articulation la plus mobile du corps humain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Surfaces articulaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'articulation gléno-humérale est constituée de deux surfaces articulaires :
 la tête humérale ;
 la cavité glénoïdale de la scapula ;
-bourrelet glénoïdien.
-Tête humérale
-La tête humérale est une saillie de l'extrémité supérieure de l'humérus. Elle a la forme d'un tiers de sphère d'environ 3 cm de rayon recouverte de cartilage. Elle est orientée en haut, en dedans et en arrière.
-Cavité glénoïdale de la scapula
-La cavité glénoïdale de la scapula est située à l'angle supéro-latéral de la scapula. Elle est reliée au reste de la scapula par le col de la scapula.
+bourrelet glénoïdien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Surfaces articulaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tête humérale</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tête humérale est une saillie de l'extrémité supérieure de l'humérus. Elle a la forme d'un tiers de sphère d'environ 3 cm de rayon recouverte de cartilage. Elle est orientée en haut, en dedans et en arrière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Surfaces articulaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cavité glénoïdale de la scapula</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cavité glénoïdale de la scapula est située à l'angle supéro-latéral de la scapula. Elle est reliée au reste de la scapula par le col de la scapula.
 Elle a une forme de poire plus étroite en haut et à grand axe oblique en haut et en avant. Elle est légèrement concave dans sa partie inférieure. Elle regarde en dehors et en avant avec un angle d'environ 45°.
 La cavité de la fosse glénoïde de l'omoplate est elle-même assez peu profonde, mais elle est rendue plus profonde par l'ajout du labrum glénoïdal de la scapula. Le labrum glénoïdal est un anneau de fibres cartilagineuses attaché à la circonférence de la cavité. Cet anneau est en continuité avec le tendon du muscle biceps brachial au-dessus.
-Moyens d'union
-Capsule articulaire
-L'articulation de l'épaule a une capsule articulaire très lâche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Moyens d'union</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Capsule articulaire</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'articulation de l'épaule a une capsule articulaire très lâche.
 Elle entoure complètement l'articulation.
 Elle s'insère en haut à la circonférence de la cavité glénoïdale de la scapula au-delà du labrum glénoïdal, et en bas au col anatomique de l'humérus.
 Elle présente trois ouvertures :
 une en avant, sous l'apophyse coracoïde créant une communication entre l'articulation et une bourse synoviale sous le tendon du sous-scapulaire.
 une deuxième inconstante dans sa partie postérieure créant une communication entre l'articulation et une bourse synoviale sous le tendon du muscle infra-épineux.
-une troisième entre les tubercules de l'humérus, pour le passage du long tendon du muscle biceps brachial.
-Ligaments
-La capsule articulaire est renforcée par :
+une troisième entre les tubercules de l'humérus, pour le passage du long tendon du muscle biceps brachial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Moyens d'union</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ligaments</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La capsule articulaire est renforcée par :
 les ligaments gléno-huméraux qui sont des épaississements de la capsule :
 le ligament gléno-huméral supérieur et le ligament gléno-huméral moyen entre le versant antéro-supérieur du labrum glénoïdal et le petit tubercule de l'humérus,
 le ligament gléno-huméral inférieur entre le versant antéro-inférieur du labrum glénoïdal et la partie adjacente du col de la scapula et se termine sur la face antéro-médial du col chirurgical de l'humérus,
-le ligament coraco-huméral entre le processus coracoïde et les deux tubercules de l'humérus[1],
-le ligament transverse huméral[1] entre les deux bords du sillon intertuberculaire de l'humérus,
-le ligament coraco-acromial[2] entre le bord latéral du processus coracoïdien et l’acromion (extrémité antérieure et face inférieure).
+le ligament coraco-huméral entre le processus coracoïde et les deux tubercules de l'humérus,
+le ligament transverse huméral entre les deux bords du sillon intertuberculaire de l'humérus,
+le ligament coraco-acromial entre le bord latéral du processus coracoïdien et l’acromion (extrémité antérieure et face inférieure).
 L'articulation est également renforcée par la coiffe des rotateurs formée par l'union des tendons des muscles subscapulaire, supra-épineux, infra-épineux et petit rond.
-Bourses synoviales
-L'articulation gléno-humérale est entourée de plusieurs bourses synoviales
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Moyens d'union</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bourses synoviales</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation gléno-humérale est entourée de plusieurs bourses synoviales
 la bourse subacromio-deltoïdienne formée de la confluence de la bourse subdeltoïdienne, entre l'articulation et la face profonde du muscle deltoïde, et de la bourse subacromiale, entre l'articulation et la voûte acromiale,
 une bourse synoviale entre le processus coracoïde et la capsule articulaire,
 la bourse du muscle coraco-brachial entre le tendon du muscle coracobrachial et le muscle subscapulaire,
 la bourse bicipito-radiale qui entoure le tendon du chef long du muscle biceps brachial dans le sillon intertuberculaire de l'humérus.et qui communique avec la synoviale de l'articulation.
 Au-dessus de l'acromion se trouve la bourse subcutanée acromiale non connectée à l'articulation.
-Muscles
-L'articulation gléno-humérale est consolidée par un ensemble de dix muscles :
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Articulation_gl%C3%A9no-hum%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Moyens d'union</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Muscles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation gléno-humérale est consolidée par un ensemble de dix muscles :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation gléno-humérale est innervée par des branches du plexus brachial : le nerf supra-scapulaire, le nerf axillaire et le nerf pectoral latéral.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Articulation_gl%C3%A9no-hum%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation gléno-humérale est vascularisée par les branches des artères circonflexes antérieure et postérieure de l'humérus, de l'artère supra-scapulaire et de l'artère circonflexe de la scapula.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Articulation_gl%C3%A9no-hum%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'articulation gléno-humérale est l'articulation la plus mobile du corps. L'amplitude de ses mouvements est augmentée grâce à la mobilité de la scapula sur la cage thoracique.
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'articulation gléno-humérale est l'articulation la plus mobile du corps. L'amplitude de ses mouvements est augmentée grâce à la mobilité de la scapula sur la cage thoracique.
 Elle est mobile dans les trois axes :
 Flexion / extension dans le plan sagittal et d'axe transversal, la flexion a une amplitude de 50° amplifiée à 160° avec la mobilisation de la scapula, l'extension a une amplitude de 25° ;
 Abduction / adduction dans le plan frontal et d'axe sagittal, l'abduction a une amplitude de 90° étendue à 160° avec la mobilisation de la scapula et à 180° avec l’inclinaison du rachis , l'adduction a une amplitude de 10° étendue à 30° avec une légère flexion/extension ;
 Rotation latérale / rotation médiale dans le plan horizontal et d'axe vertical, l'amplitude de la rotation latérale est de 35° et celle de la rotation médiale de 95°.
 L'association de ces trois degrés de mobilité permet au membre supérieur de se déplacer dans un cône irrégulier dont le sommet est l'articulation gléno-humérale : le cône de circumduction.
-Muscles moteurs</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Articulation_gl%C3%A9no-hum%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exploration de l'articulation gléno-humérale
-L'arthrographie de l'articulation de l'épaule (avec ou sans tomodensitométrie ) est réalisée en injectant un produit de contraste sous et latéralement à l'apophyse coracoïde pour délimiter l'articulation de l'épaule. La poche axillaire de l'épaule peut être vue en rotation externe, tandis que la bourse sous-scapulaire (sous-coracoïde) peut être vue en rotation interne du bras. Le produit de contraste ne doit pas pénétrer dans la bourse sous-acromiale à moins que le tendon du supra-épineux ne soit complètement rompu[1].
-L'IRM avec bobines de surface est également être utilisée[1].
-L'espace gléno-huméral normal est de 4 à 5 mm[3].
-L'espace sous-acromial normal sur les radiographies de l'épaule est de 9 à 10 millimètres ; cet espace est significativement plus important chez les hommes, avec une légère diminution avec l'âge[4]. A l'âge moyen, un espace sous-acromial inférieur à 6 mm est pathologique et peut indiquer une rupture du tendon du muscle supra-épineux[4].
-Luxation de l'articulation gléno-humérale
-Les surfaces articulaires de l'articulation étant peu congruente, un traumatisme peut entraîner une luxation de celle-ci accompagnée parfois à une fracture de l'humérus et/ou de la cavité glénoïdale.
-Phénomènes inflammatoires
-Une inflammation des éléments associés à cette articulation peuvent entraîner des douleurs et des restrictions de mouvements de l'épaule.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Exploration de l'articulation gléno-humérale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arthrographie de l'articulation de l'épaule (avec ou sans tomodensitométrie ) est réalisée en injectant un produit de contraste sous et latéralement à l'apophyse coracoïde pour délimiter l'articulation de l'épaule. La poche axillaire de l'épaule peut être vue en rotation externe, tandis que la bourse sous-scapulaire (sous-coracoïde) peut être vue en rotation interne du bras. Le produit de contraste ne doit pas pénétrer dans la bourse sous-acromiale à moins que le tendon du supra-épineux ne soit complètement rompu.
+L'IRM avec bobines de surface est également être utilisée.
+L'espace gléno-huméral normal est de 4 à 5 mm.
+L'espace sous-acromial normal sur les radiographies de l'épaule est de 9 à 10 millimètres ; cet espace est significativement plus important chez les hommes, avec une légère diminution avec l'âge. A l'âge moyen, un espace sous-acromial inférieur à 6 mm est pathologique et peut indiquer une rupture du tendon du muscle supra-épineux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Luxation de l'articulation gléno-humérale</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les surfaces articulaires de l'articulation étant peu congruente, un traumatisme peut entraîner une luxation de celle-ci accompagnée parfois à une fracture de l'humérus et/ou de la cavité glénoïdale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Phénomènes inflammatoires</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une inflammation des éléments associés à cette articulation peuvent entraîner des douleurs et des restrictions de mouvements de l'épaule.
 La capsule peut devenir enflammée et raide, avec des adhérences entraînant une capsulite rétractile de l'épaule (ou épaule gelée).
 Les bourses synoviales entourant l'articulation sont également sujettes à des inflammations. En particulier la bourse subacromio-deltoïdienne entraînant une bursite sous-deltoïdienne.
 La coiffe des rotateurs peut être la source d'une tendinopathie.
-Déchirure du labrum glénoïdal
-Le labrum glénoïdal de la scapula peut se déchirer entraînant une lésion SLAP. La déchirure peut être occasionnée au cours d'activités sportives tel que le tennis ou d'autres sports de lancer. Ce type de blessure nécessite souvent une réparation chirurgicale[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Articulation_gléno-humérale</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_gl%C3%A9no-hum%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Déchirure du labrum glénoïdal</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le labrum glénoïdal de la scapula peut se déchirer entraînant une lésion SLAP. La déchirure peut être occasionnée au cours d'activités sportives tel que le tennis ou d'autres sports de lancer. Ce type de blessure nécessite souvent une réparation chirurgicale.
 </t>
         </is>
       </c>
